--- a/AUTOMATICO.xlsx
+++ b/AUTOMATICO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto\ss\AUTOMATIZACAO_cancela\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projeto\ss\AUTOMATIZACAO_cancela\AUTOMATIZACAO_cancela\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21A785D7-A0D2-49BF-A16A-F9F668640C4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E18C1F-3AF1-4F5F-B2D5-3AA08F9A00DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{91B9774C-0A6C-4F15-904B-0DF1E8EAAD76}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="84">
   <si>
     <t>Unidade Solicitante:</t>
   </si>
@@ -288,27 +288,6 @@
   </si>
   <si>
     <t>paciente nao esta na cidade</t>
-  </si>
-  <si>
-    <t>MAYARA M.</t>
-  </si>
-  <si>
-    <t>FLAVIA</t>
-  </si>
-  <si>
-    <t>IRMÃ-NAIR SOFREU ACIDENTE E NÃO ESTA EM BRAGANÇA</t>
-  </si>
-  <si>
-    <t>PRCISA PARA DAQUI UM MES</t>
-  </si>
-  <si>
-    <t>VAI REMARCAR EXAMES NAO ESTAO PRONTOS</t>
-  </si>
-  <si>
-    <t>sem exames</t>
-  </si>
-  <si>
-    <t>REMARCAR TEM ORTOPEDISTA NO MESMO DIA NA SANTA CASA</t>
   </si>
 </sst>
 </file>
@@ -937,7 +916,7 @@
   <dimension ref="A1:IN18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D6"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,18 +1186,10 @@
       <c r="IN1" s="2"/>
     </row>
     <row r="2" spans="1:248" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
-        <v>416614754</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="26" t="s">
-        <v>84</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>86</v>
-      </c>
+      <c r="A2" s="3"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="3"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -1464,19 +1435,11 @@
       <c r="IM2" s="1"/>
       <c r="IN2" s="1"/>
     </row>
-    <row r="3" spans="1:248" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>418836863</v>
-      </c>
-      <c r="B3" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>87</v>
-      </c>
+    <row r="3" spans="1:248" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3"/>
+      <c r="B3" s="17"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="3"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
@@ -1722,19 +1685,11 @@
       <c r="IM3" s="1"/>
       <c r="IN3" s="1"/>
     </row>
-    <row r="4" spans="1:248" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>419275938</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>88</v>
-      </c>
+    <row r="4" spans="1:248" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="3"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -1980,19 +1935,11 @@
       <c r="IM4" s="1"/>
       <c r="IN4" s="1"/>
     </row>
-    <row r="5" spans="1:248" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>419745057</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>89</v>
-      </c>
+    <row r="5" spans="1:248" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3"/>
+      <c r="B5" s="17"/>
+      <c r="C5" s="26"/>
+      <c r="D5" s="3"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
@@ -2239,18 +2186,10 @@
       <c r="IN5" s="1"/>
     </row>
     <row r="6" spans="1:248" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>419287930</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>90</v>
-      </c>
+      <c r="A6" s="3"/>
+      <c r="B6" s="17"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="3"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
